--- a/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005844</t>
+          <t>000586</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方人工智能主题混合</t>
+          <t>景顺长城中小板创业板精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.01</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000586</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中小板创业板精选股票</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>002244</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002244</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
+          <t>创金合信量化多因子股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002210</t>
+          <t>005844</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票A</t>
+          <t>东方人工智能主题混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>89.50</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.79</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,25 +786,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>550015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>信诚至远灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5471</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>550015</t>
+          <t>009447</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚至远灵活配置混合A</t>
+          <t>财通资管科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.50</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -772,15 +872,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>80.50</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.71</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002244</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>002244</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009447</t>
+          <t>002303</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通资管科技创新一年定期开放混合</t>
+          <t>金鹰智慧生活灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,476 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5759</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3727</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1484,4 +1485,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5906</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1731,4 +1732,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1740,7 +1741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,17 +1752,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1771,14 +1792,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.03</v>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4661</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1787,14 +1830,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.92</v>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1803,14 +1868,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.09</v>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1819,13 +1906,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1949,7 +1950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1960,17 +1961,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1980,14 +2001,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.78</v>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1996,14 +2039,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.03</v>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2012,14 +2077,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.92</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="5">
@@ -2028,14 +2199,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>1.09</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="6">
@@ -2044,13 +2215,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2120,7 +2121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2131,17 +2132,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2151,14 +2172,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -2167,14 +2262,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.78</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -2183,14 +2278,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.03</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
@@ -2199,14 +2294,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.92</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="6">
@@ -2215,14 +2310,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1.09</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="7">
@@ -2231,13 +2326,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.78</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.03</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.92</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.09</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小创精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015784</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015785</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -693,7 +918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -863,7 +1088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1071,7 +1296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1317,7 +1542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1789,7 +2014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2073,7 +2298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300378-鼎捷软件.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.78</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.03</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.92</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>1.09</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -616,7 +633,423 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小创精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +1257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -918,7 +1351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1088,7 +1521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1296,7 +1729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1542,7 +1975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2014,7 +2447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2296,288 +2729,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2266</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0770</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002244</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0446</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005844</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方人工智能主题混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>